--- a/CUDA1/README.xlsx
+++ b/CUDA1/README.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>Sequential</t>
   </si>
@@ -1238,16 +1238,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>298117</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514017</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>247984</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476584</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1660,7 +1660,7 @@
   <dimension ref="A5:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1784,7 +1784,7 @@
         <v>36.293733681462143</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="2:4">
       <c r="B17">
         <v>8000</v>
       </c>
@@ -1796,295 +1796,6 @@
         <v>37.001856300502297</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1.29</v>
-      </c>
-      <c r="D22">
-        <f xml:space="preserve"> C22 /C22</f>
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>1.29</v>
-      </c>
-      <c r="D23">
-        <f xml:space="preserve"> C22 / C23</f>
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <f xml:space="preserve"> D23 / 2</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>1.29</v>
-      </c>
-      <c r="D24">
-        <f xml:space="preserve"> C22 / C24</f>
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <f xml:space="preserve"> D24 / 3</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>1.29</v>
-      </c>
-      <c r="D25">
-        <f xml:space="preserve"> C22 / C25</f>
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <f xml:space="preserve"> D25 / 4</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>1.29</v>
-      </c>
-      <c r="D26">
-        <f xml:space="preserve"> C22 / C26</f>
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <f xml:space="preserve"> D26 / 5</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27">
-        <v>1.29</v>
-      </c>
-      <c r="D27">
-        <f xml:space="preserve"> C22 / C27</f>
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <f xml:space="preserve"> D27 / 6</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>1.29</v>
-      </c>
-      <c r="D28">
-        <f xml:space="preserve"> C22 / C28</f>
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <f xml:space="preserve"> D28 / 7</f>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="B29">
-        <v>8</v>
-      </c>
-      <c r="C29">
-        <v>1.29</v>
-      </c>
-      <c r="D29">
-        <f xml:space="preserve"> C22 / C29</f>
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <f xml:space="preserve"> D29 / 8</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1">
-        <v>4.76</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" ref="D32:D39" si="0">C22/C32</f>
-        <v>0.27100840336134457</v>
-      </c>
-      <c r="E32" s="1">
-        <f xml:space="preserve"> D32 / 1</f>
-        <v>0.27100840336134457</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="B33" s="1">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="E33" s="1">
-        <f xml:space="preserve"> D33 / 2</f>
-        <v>0.25800000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="B34" s="1">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1.71</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75438596491228072</v>
-      </c>
-      <c r="E34" s="1">
-        <f xml:space="preserve"> D34 / 3</f>
-        <v>0.25146198830409355</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="B35" s="1">
-        <v>4</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1.34</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>0.96268656716417911</v>
-      </c>
-      <c r="E35" s="1">
-        <f xml:space="preserve"> D35 / 4</f>
-        <v>0.24067164179104478</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="B36" s="1">
-        <v>5</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1727272727272726</v>
-      </c>
-      <c r="E36" s="1">
-        <f xml:space="preserve"> D36 / 5</f>
-        <v>0.23454545454545453</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="B37" s="1">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4021739130434783</v>
-      </c>
-      <c r="E37" s="1">
-        <f xml:space="preserve"> D37 / 6</f>
-        <v>0.23369565217391305</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="B38" s="1">
-        <v>7</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6329113924050633</v>
-      </c>
-      <c r="E38" s="1">
-        <f xml:space="preserve"> D38 / 7</f>
-        <v>0.23327305605786619</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="B39" s="1">
-        <v>8</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="0"/>
-        <v>1.842857142857143</v>
-      </c>
-      <c r="E39" s="1">
-        <f xml:space="preserve"> D39 / 8</f>
-        <v>0.23035714285714287</v>
-      </c>
-    </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>0</v>
@@ -2254,7 +1965,7 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="D55">
-        <f t="shared" ref="D55:D62" si="1">C45/C55</f>
+        <f t="shared" ref="D55:D62" si="0">C45/C55</f>
         <v>0.28669724770642202</v>
       </c>
       <c r="E55">
@@ -2270,7 +1981,7 @@
         <v>2.31</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.54112554112554112</v>
       </c>
       <c r="E56">
@@ -2286,7 +1997,7 @@
         <v>1.63</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.76687116564417179</v>
       </c>
       <c r="E57">
@@ -2302,7 +2013,7 @@
         <v>1.29</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.96899224806201545</v>
       </c>
       <c r="E58">
@@ -2318,7 +2029,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1467889908256881</v>
       </c>
       <c r="E59">
@@ -2334,7 +2045,7 @@
         <v>0.93</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3440860215053763</v>
       </c>
       <c r="E60">
@@ -2350,7 +2061,7 @@
         <v>0.81</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5432098765432098</v>
       </c>
       <c r="E61">
@@ -2366,7 +2077,7 @@
         <v>0.73</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7123287671232876</v>
       </c>
       <c r="E62">
@@ -2543,7 +2254,7 @@
         <v>4.37</v>
       </c>
       <c r="D76">
-        <f t="shared" ref="D76:D83" si="2">C66/C76</f>
+        <f t="shared" ref="D76:D83" si="1">C66/C76</f>
         <v>0.28375286041189929</v>
       </c>
       <c r="E76">
@@ -2559,7 +2270,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.53913043478260869</v>
       </c>
       <c r="E77">
@@ -2575,7 +2286,7 @@
         <v>1.61</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.77018633540372661</v>
       </c>
       <c r="E78">
@@ -2591,7 +2302,7 @@
         <v>1.26</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.98412698412698407</v>
       </c>
       <c r="E79">
@@ -2607,7 +2318,7 @@
         <v>1.06</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1698113207547169</v>
       </c>
       <c r="E80">
@@ -2623,7 +2334,7 @@
         <v>0.97</v>
       </c>
       <c r="D81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.2783505154639176</v>
       </c>
       <c r="E81">
@@ -2639,7 +2350,7 @@
         <v>0.77</v>
       </c>
       <c r="D82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6103896103896103</v>
       </c>
       <c r="E82">
@@ -2655,7 +2366,7 @@
         <v>0.69</v>
       </c>
       <c r="D83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.7971014492753625</v>
       </c>
       <c r="E83">
